--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_28_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_28_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145990.0963908601</v>
+        <v>25230634.20548115</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145990.0963908601</v>
+        <v>25230634.20548115</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3246.695356518178</v>
+        <v>294553.7596311984</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3246.695356518178</v>
+        <v>294553.7596311984</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1034818378.42799</v>
+        <v>41488256.55153535</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7526.549300782804</v>
+        <v>852311.7888442369</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15026.7045022287</v>
+        <v>1699371.151920428</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22526.85970367458</v>
+        <v>2546430.514996619</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30172.9690847998</v>
+        <v>3396218.448612512</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37811.623024017</v>
+        <v>4244522.749288703</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45450.2769632342</v>
+        <v>5092827.049964894</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53088.93090245139</v>
+        <v>5941131.350641081</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>60727.58484166857</v>
+        <v>6789435.65131727</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68331.4019326213</v>
+        <v>7637127.121017458</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>75869.91097336546</v>
+        <v>8479880.663081901</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>83440.68229135461</v>
+        <v>9329054.398318095</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>90878.20643209646</v>
+        <v>10176885.99595429</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98315.73057283831</v>
+        <v>11024717.59359049</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>105996.9233322585</v>
+        <v>11858658.18387661</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>113719.3386852562</v>
+        <v>12679208.60479597</v>
       </c>
     </row>
   </sheetData>
